--- a/GALT.xlsx
+++ b/GALT.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76106E3-23F8-4BAA-867E-6D5709996B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F8ABC-7CED-4183-A552-83AD8E803645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33210" yWindow="2070" windowWidth="29010" windowHeight="15345" activeTab="1" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
+    <workbookView xWindow="-29385" yWindow="1590" windowWidth="25215" windowHeight="16575" activeTab="3" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="belapectin" sheetId="2" r:id="rId2"/>
-    <sheet name="Papers" sheetId="3" r:id="rId3"/>
+    <sheet name="NASH" sheetId="4" r:id="rId3"/>
+    <sheet name="Papers" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>Price</t>
   </si>
@@ -142,9 +143,6 @@
     <t>LPLV+18 months</t>
   </si>
   <si>
-    <t>Phase II "NASH-CX" n=162 MASH+PH - Gastroenterology 2020</t>
-  </si>
-  <si>
     <t>-0.28 (0.49)</t>
   </si>
   <si>
@@ -154,9 +152,6 @@
     <t>+0.10 (0.48)</t>
   </si>
   <si>
-    <t>2mg/kg, 8mg/kg, placebo by IV q2w</t>
-  </si>
-  <si>
     <t>Effects of Belapectin, an Inhibitor of Galectin-3, in Patients With Nonalcoholic Steatohepatitis With Cirrhosis and Portal Hypertension. Chalasani et al. Gastroenterology 2020.</t>
   </si>
   <si>
@@ -173,6 +168,183 @@
   </si>
   <si>
     <t>HVPG at 52 weeks primary endpoint (ANOVA), required &gt;=6mmHg</t>
+  </si>
+  <si>
+    <t>2mg/kg, 8mg/kg, placebo by IV q2w at 36 centers</t>
+  </si>
+  <si>
+    <t>Phase II "NASH-CX" n=162 MASH+PH 52-week trial - Gastroenterology 2020 - NCT02462967</t>
+  </si>
+  <si>
+    <t>Without varices at baseline (unplanned subgroup?)</t>
+  </si>
+  <si>
+    <t>2mg/kg</t>
+  </si>
+  <si>
+    <t>8mg/kg</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>-1.61, p=0.02</t>
+  </si>
+  <si>
+    <t>-0.28, p=0.4</t>
+  </si>
+  <si>
+    <t>+6.15% from baseline +-31%</t>
+  </si>
+  <si>
+    <t>-1.74% from baseline +-33%, p=0.11</t>
+  </si>
+  <si>
+    <t>-1.09% from baseline +-22%, p=0.42</t>
+  </si>
+  <si>
+    <t>Phase II GCS-100 CKD (not GALT drug)</t>
+  </si>
+  <si>
+    <t>met at 1.5mg but not 30mg</t>
+  </si>
+  <si>
+    <t>2mm change was expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  placebo had small baseline imbalance in varices (61% none 39% small, vs 48/52 and 43/57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HVPG baseline was 11.6 for placebo, 12.4 and 12.7 with SD 4.0-4.3</t>
+  </si>
+  <si>
+    <t>+0.40</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>with varices at baseline</t>
+  </si>
+  <si>
+    <t>+0.81, p=0.23</t>
+  </si>
+  <si>
+    <t>-0.27, p=0.963</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>18050-21110ng/mL for 2mg/kg and 75420-95880ng/mL for 8mg/kg</t>
+  </si>
+  <si>
+    <t>NAFL</t>
+  </si>
+  <si>
+    <t>5% HS without hepatocellular injury (ballooning)</t>
+  </si>
+  <si>
+    <t>&gt;5% with ballooning with or without fibrosis</t>
+  </si>
+  <si>
+    <t>25% have NAFLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  59% of NAFLD have NASH</t>
+  </si>
+  <si>
+    <t>1-6% (also quoted as 12%) of the population has NASH</t>
+  </si>
+  <si>
+    <t>VCTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  can progress to liver cirrhosis, liver failure, liver cancer and death</t>
+  </si>
+  <si>
+    <t>PDFF</t>
+  </si>
+  <si>
+    <t>proton density fat fraction</t>
+  </si>
+  <si>
+    <t>steatosis</t>
+  </si>
+  <si>
+    <t>ferritin</t>
+  </si>
+  <si>
+    <t>transient elastography</t>
+  </si>
+  <si>
+    <t>transferrin</t>
+  </si>
+  <si>
+    <t>FIB-4 index</t>
+  </si>
+  <si>
+    <t>NASH algorithm</t>
+  </si>
+  <si>
+    <t>(vibration controlled transient elastography) Fibroscan measures liver stiffness non-invasively.</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>NAFLD Activity Score - semi-quantitative assessment</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>Steatosis Activity Fibrosis - semi-quantitative assessment</t>
+  </si>
+  <si>
+    <t>obeticholic acid</t>
+  </si>
+  <si>
+    <t>elafibranor</t>
+  </si>
+  <si>
+    <t>The Diagnosis and Management of Nonalcoholic Fatty Liver Disease: Practice Guidance from the AASLD. Chalasani et al. Hepatology 2018</t>
+  </si>
+  <si>
+    <t>decompensation</t>
+  </si>
+  <si>
+    <t>development of ascites, variceal hemorrhage, hepatic encephalopathy</t>
+  </si>
+  <si>
+    <t>Hepatic Venous Pressure Gradient Predicts Clinical Decompensation in Patients With Compensated Cirrhosis - Ripoll et al. Gastroenterology 2007.</t>
+  </si>
+  <si>
+    <t>HVPG</t>
+  </si>
+  <si>
+    <t>hepatic venous pressure gradient, measures portal hypertension</t>
+  </si>
+  <si>
+    <t>Patients with &lt;10mmHg HVPG have a 90% probability of not decompensating</t>
+  </si>
+  <si>
+    <t>MELD</t>
+  </si>
+  <si>
+    <t>Child-Pugh</t>
+  </si>
+  <si>
+    <t>Model for End-Stage Liver Disease</t>
+  </si>
+  <si>
+    <t>Management of NAFLD: a stage-based approach. Rinella &amp; Sanyal. Nat Rev Gastro Hepatol 2016</t>
   </si>
 </sst>
 </file>
@@ -309,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,6 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -351,16 +524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488165</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27878</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177488</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381927</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>13009</xdr:rowOff>
+      <xdr:rowOff>147753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,7 +563,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5561970" y="353122"/>
+          <a:off x="6983750" y="487866"/>
           <a:ext cx="2124006" cy="2099216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -414,13 +587,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>311305</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>120804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292022</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>292023</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>57672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -475,13 +648,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>115065</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>51110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>218376</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>218377</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>90370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -528,6 +701,94 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433653</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58426</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60529A83-DB36-9B17-C71B-F5F9C97706ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9564046" y="3061607"/>
+          <a:ext cx="5747987" cy="3551258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>341030</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0A151B-512D-0876-5287-CE6D17E47FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8885465" y="6966857"/>
+          <a:ext cx="6096851" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -854,15 +1115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF9C6-3B14-4BDA-84B8-00B5084DDFA1}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="6" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -1001,17 +1262,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5682B-1711-4774-8135-680A0385C4E6}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,86 +1305,207 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="E25" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1137,33 +1518,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A988D39-FC9A-4688-A011-FA2CE99EF0DB}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F2867AAD-2D10-43EF-BF24-8287B4D76AB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6389A006-1A96-44FD-BE66-68FE0879F1D7}">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B3:B14"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/GALT.xlsx
+++ b/GALT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F8ABC-7CED-4183-A552-83AD8E803645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D094B00B-C223-4182-BB36-421B5B370BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29385" yWindow="1590" windowWidth="25215" windowHeight="16575" activeTab="3" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
+    <workbookView xWindow="-29085" yWindow="1770" windowWidth="26880" windowHeight="16065" activeTab="1" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>Price</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Phase II "NAVIGATE" n=357 MASH varices - NCT04365868</t>
-  </si>
-  <si>
     <t>Phase II "NASH-FX" n=30</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
     <t>CMO: Khurram Jamil</t>
   </si>
   <si>
-    <t>CEO: Joel Lewis</t>
-  </si>
-  <si>
-    <t>PE: prevention of esophageal varices</t>
-  </si>
-  <si>
-    <t>2mg/kg, 4mg/kg, placebo</t>
-  </si>
-  <si>
     <t>LPLV+18 months</t>
   </si>
   <si>
@@ -345,6 +333,21 @@
   </si>
   <si>
     <t>Management of NAFLD: a stage-based approach. Rinella &amp; Sanyal. Nat Rev Gastro Hepatol 2016</t>
+  </si>
+  <si>
+    <t>CEO: Joel Lewis replaced Joel Lewis (2014-) who replaced David Platt (2001-)</t>
+  </si>
+  <si>
+    <t>GR-MD-02 (galactoarabino-rhamnogalacturnate) is a soluble polysaccharide composed of an alternating α-(1,2)-L-rhamnosyl-α-(1,4)-D-galacturonosyl backbone with side branches composed of mainly galactose and arabinose oligosaccharides.</t>
+  </si>
+  <si>
+    <t>Phase II "NAVIGATE" n=357 NASH varices - NCT04365868</t>
+  </si>
+  <si>
+    <t>2mg/kg, 4mg/kg, placebo IV every two weeks</t>
+  </si>
+  <si>
+    <t>PE: prevention of esophageal varices at 78 weeks</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,7 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,16 +587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>311305</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521512</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>120804</xdr:rowOff>
+      <xdr:rowOff>48545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>292023</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57672</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502231</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -624,8 +626,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4167768" y="3210621"/>
-          <a:ext cx="3632742" cy="2050953"/>
+          <a:off x="5362840" y="3989924"/>
+          <a:ext cx="3646201" cy="2071782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,7 +1117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF9C6-3B14-4BDA-84B8-00B5084DDFA1}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1142,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1171,7 +1175,7 @@
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>180.75405599999999</v>
+        <v>131.79983250000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>258.24805600000002</v>
+        <v>209.29383250000001</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -1230,7 +1234,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -1244,12 +1248,12 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1262,9 +1266,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5682B-1711-4774-8135-680A0385C4E6}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1274,20 +1280,23 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1303,136 +1312,136 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -1440,10 +1449,10 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F31">
         <v>23</v>
@@ -1451,10 +1460,10 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>33</v>
@@ -1462,15 +1471,15 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>28</v>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>31</v>
@@ -1489,10 +1498,10 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>21</v>
@@ -1500,12 +1509,12 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1536,15 +1545,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,124 +1561,124 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1684,50 +1693,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6389A006-1A96-44FD-BE66-68FE0879F1D7}">
   <dimension ref="B3:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>94</v>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/GALT.xlsx
+++ b/GALT.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D094B00B-C223-4182-BB36-421B5B370BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25907069-ECF0-47DB-9D8A-7B1679794CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29085" yWindow="1770" windowWidth="26880" windowHeight="16065" activeTab="1" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
+    <workbookView xWindow="5910" yWindow="2290" windowWidth="28800" windowHeight="15370" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="belapectin" sheetId="2" r:id="rId2"/>
-    <sheet name="NASH" sheetId="4" r:id="rId3"/>
-    <sheet name="Papers" sheetId="3" r:id="rId4"/>
+    <sheet name="Subgroups" sheetId="5" r:id="rId3"/>
+    <sheet name="NASH" sheetId="4" r:id="rId4"/>
+    <sheet name="Papers" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
   <si>
     <t>Price</t>
   </si>
@@ -348,13 +349,91 @@
   </si>
   <si>
     <t>PE: prevention of esophageal varices at 78 weeks</t>
+  </si>
+  <si>
+    <t>1993: IGG raises $43,687.</t>
+  </si>
+  <si>
+    <t>1994: IGG raises $64,290.</t>
+  </si>
+  <si>
+    <t>1995: Goes public via reverse merger with Alvarada.</t>
+  </si>
+  <si>
+    <t>redo phase 1???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996: Carbohydrates for HIV, Cancer and fungicides. Testing of the Company's product for HIV treatment, known as MMS-1, was completed at the University of Kentucky in April 1996.  Test results showed that the MMS-1 compound was very effective over the test period at increasing survival rates and the immune function in viral-infected laboratory mice.  This study is part of the final package that will be submitted to the FDA for IND approval as a potential treatment of HIV.  The Company's schedule for development anticipates that clinical testing on this compound will begin in 1997. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1997: The Company is researching and developing five principal products, four of which are derived from naturally occurring substances:  ELEXA, a plant fungus; the GBC 590 and the Microorganism Substances (MMS-1 and MMS-2).  The fifth product is an active peptide which is a synthetic compound.  In 1990, M. Mouricout showed that injections of glycopeptides taken from the blood plasma of cows can protect newborn calves from lethal doses of E. coli. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GBC 590</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. In February 1995, in independent research paper was published in the JNCI.  The study used a compound similar to the Company's GBC 590 substance.  The study showed almost 100% elimination of prostate cancer metastases in rats.  These independent scientific results indicates that many forms of cancer may produce metastatic cells with the same markers to which the Company's substance derived from the Complex carbohydrate attaches.  As a result, while the substance has only been tested on melanoma and prostate cancer in animals, the product may or may not have an application in treating other cell lines as well. Micro-organism (MMS-2). MMS-2 has demonstrated the ability to inhibit metastasis in No/No nude mice (Mice without an active immune system so they will not reject human cells) injected with human melanoma cells.  The test was performed according to a research article in the International Journal Cancer, 1991.  Two groups of mice were injected intravenously with melanoma human cancer cells.  The test group was injected twice a week with MMS-2.  After 35 days group 1 was compared to test group 2 with respect to tumor growth using the Wilcoxon Rank Sum Text.  Multiple comparisons were made across 5 days using Bonferroni's rule.  The test was conducted at an overall significance level of 0.05.  MMS-1 significantly reduce the amount of cancer cells in the mice's lungs.</t>
+    </r>
+  </si>
+  <si>
+    <t>1989: Dr. Platt Phd. Dr. Platt received a Doctor of Philosophy degree (1989), Masters of Science degree (1983), and Bachelor of Science degree (1978) from the Hebrew University of Jerusalem, Israel and a Bachelor of Engineering degree (1980) from Technion, Haifa, Israel. From January 1989 to August 1989, Dr. Platt was a research fellow under Dr. M. Wilcheck, Weizmann Institute of Science, Rehovot, Israel.</t>
+  </si>
+  <si>
+    <t>1990: From October 1989 to November 1991, Dr. Platt was a research fellow with Dr. A. Raz. at the Michigan Cancer Foundation, Detroit Michigan.</t>
+  </si>
+  <si>
+    <t>1991: From January 1991 to November 1992, Dr. Platt was a research scientist with the Department of Internal Medicine at the University of Michigan, Ann Arbor, Michigan.</t>
+  </si>
+  <si>
+    <t>1992: 12/8/1992: International Gene Group, Inc. is founded by David Platt.</t>
+  </si>
+  <si>
+    <t>1998: IGG becomes SafeScience (NASDAQ: SAFS). On November 4, 1998, Dr. Vodek Sasak of SafeScience announced new pre-clinical data at the Intertech Glycocompounds '98 conference in Vancouver, British Columbia, Canada. The data showed that GBC-590, when administered as a single agent, produced a significant response in the PANC-1 human pancreatic tumor cell model, with 44% of the mice in the GBC-590 group surviving the 90-day experiment, and with 33% demonstrating a complete eradication of the tumor. No mice in the control groups that were administered saline solution or gemcitabine survived past 43 days, with a mean survival time of less than 30 days. 16 employees.</t>
+  </si>
+  <si>
+    <t>1999: 53 employees. 5,895,784 entitled "Method for Treatment of Cancer by Oral Administration of Modified Pectin. 5,834,442 entitled "Method for Inhibiting Cancer Metastasis by Oral Administration of Soluble Modified Citrus Pectin</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Subgroup 1</t>
+  </si>
+  <si>
+    <t>Subgroup 2</t>
+  </si>
+  <si>
+    <t>BONFERRONI CORRECTION</t>
+  </si>
+  <si>
+    <t>MULTIPLICITY CORRECTION/ADJUSTMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -375,6 +454,24 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +599,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,8 +771,8 @@
       <xdr:rowOff>51110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>218377</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294577</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>90370</xdr:rowOff>
     </xdr:to>
@@ -787,6 +904,50 @@
         <a:xfrm>
           <a:off x="8885465" y="6966857"/>
           <a:ext cx="6096851" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35032</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>153990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>491501</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C83434C-1B97-9BF0-721E-36AF634C9129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1261239" y="9499438"/>
+          <a:ext cx="5941993" cy="3052208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,22 +1276,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF9C6-3B14-4BDA-84B8-00B5084DDFA1}">
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="6" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1145,11 +1304,11 @@
       <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="18">
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="5"/>
       <c r="H4" s="6"/>
       <c r="J4" t="s">
@@ -1178,7 +1337,7 @@
         <v>131.79983250000001</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="5"/>
       <c r="H5" s="6"/>
       <c r="J5" t="s">
@@ -1191,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="5"/>
       <c r="H6" s="6"/>
       <c r="J6" t="s">
@@ -1205,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1221,7 +1380,7 @@
         <v>209.29383250000001</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="J10" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="E11" t="s">
         <v>26</v>
       </c>
@@ -1246,15 +1405,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="J13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="J14" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="13">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="13">
+      <c r="B24" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1268,24 +1502,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5682B-1711-4774-8135-680A0385C4E6}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -1320,82 +1553,82 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13">
       <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13">
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13">
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" ht="13">
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -1406,7 +1639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -1428,7 +1661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6">
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6">
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -1447,7 +1680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6">
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1458,7 +1691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>44</v>
       </c>
@@ -1469,12 +1702,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6">
       <c r="D34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6">
       <c r="D35" t="s">
         <v>42</v>
       </c>
@@ -1485,7 +1718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6">
       <c r="D36" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6">
       <c r="D37" t="s">
         <v>44</v>
       </c>
@@ -1507,12 +1740,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" ht="13">
       <c r="C43" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -1527,23 +1760,990 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF00AE3C-FC01-4B50-8B30-99289415A5E0}">
+  <dimension ref="A1:I111"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="5" max="6" width="10.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.54296875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="20"/>
+    <col min="9" max="9" width="10.08984375" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="E1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNT(B6:B111)</f>
+        <v>106</v>
+      </c>
+      <c r="C3" s="1">
+        <f>COUNT(C6:C111)</f>
+        <v>106</v>
+      </c>
+      <c r="E3" s="21">
+        <f>COUNT(B6:B58)</f>
+        <v>53</v>
+      </c>
+      <c r="F3" s="21">
+        <f>COUNT(C6:C58)</f>
+        <v>53</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21">
+        <f>COUNT(B59:B111)</f>
+        <v>53</v>
+      </c>
+      <c r="I3" s="21">
+        <f>COUNT(C59:C111)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="19">
+        <f>AVERAGE(B6:B111)</f>
+        <v>49.39622641509434</v>
+      </c>
+      <c r="C4" s="19">
+        <f>AVERAGE(C6:C111)</f>
+        <v>49.056603773584904</v>
+      </c>
+      <c r="E4" s="22">
+        <f>AVERAGE(B6:B58)</f>
+        <v>48.754716981132077</v>
+      </c>
+      <c r="F4" s="22">
+        <f>AVERAGE(C6:C58)</f>
+        <v>53.886792452830186</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22">
+        <f>AVERAGE(B59:B111)</f>
+        <v>50.037735849056602</v>
+      </c>
+      <c r="I4" s="22">
+        <f>AVERAGE(C59:C111)</f>
+        <v>44.226415094339622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>74</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>87</v>
+      </c>
+      <c r="C50">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>90</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>88</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>54</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>94</v>
+      </c>
+      <c r="C67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>79</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>65</v>
+      </c>
+      <c r="C76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>96</v>
+      </c>
+      <c r="C81">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84">
+        <v>78</v>
+      </c>
+      <c r="C84">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85">
+        <v>68</v>
+      </c>
+      <c r="C85">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88">
+        <v>73</v>
+      </c>
+      <c r="C88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89">
+        <v>65</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>39</v>
+      </c>
+      <c r="C93">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94">
+        <v>96</v>
+      </c>
+      <c r="C94">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>52</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98">
+        <v>87</v>
+      </c>
+      <c r="C98">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100">
+        <v>46</v>
+      </c>
+      <c r="C100">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102">
+        <v>91</v>
+      </c>
+      <c r="C102">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103">
+        <v>68</v>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104">
+        <v>74</v>
+      </c>
+      <c r="C104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105">
+        <v>26</v>
+      </c>
+      <c r="C105">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108">
+        <v>84</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109">
+        <v>45</v>
+      </c>
+      <c r="C109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110">
+        <v>54</v>
+      </c>
+      <c r="C110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111">
+        <v>28</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A988D39-FC9A-4688-A011-FA2CE99EF0DB}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -1551,12 +2751,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1564,22 +2764,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -1587,7 +2787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -1595,12 +2795,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1608,17 +2808,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -1626,7 +2826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -1634,7 +2834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>83</v>
       </c>
@@ -1642,17 +2842,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>88</v>
       </c>
@@ -1660,7 +2860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -1668,7 +2868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>94</v>
       </c>
@@ -1676,7 +2876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -1689,50 +2889,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6389A006-1A96-44FD-BE66-68FE0879F1D7}">
   <dimension ref="B3:B14"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="13">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" ht="13">
       <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" ht="13">
       <c r="B11" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2" ht="13">
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>

--- a/GALT.xlsx
+++ b/GALT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25907069-ECF0-47DB-9D8A-7B1679794CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8ADAA-CB7E-4A31-A9A4-010E1193C40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2290" windowWidth="28800" windowHeight="15370" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
+    <workbookView xWindow="-27405" yWindow="2760" windowWidth="26535" windowHeight="17955" activeTab="1" xr2:uid="{B0B174E3-17B7-405C-BD96-C3ACB1044C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
   <si>
     <t>Price</t>
   </si>
@@ -427,6 +427,66 @@
   </si>
   <si>
     <t>MULTIPLICITY CORRECTION/ADJUSTMENT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PP (290) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ITT (355)</t>
+    </r>
+  </si>
+  <si>
+    <t>4mg fail</t>
+  </si>
+  <si>
+    <t>what was the PE result?</t>
+  </si>
+  <si>
+    <t>The primary endpoint was defined as the prevention of varices, assessed as a composite clinical outcome that included subjects with any varices, those with intercurrent events, or those without an endoscopy or intercurrent events at 18 months.</t>
+  </si>
+  <si>
+    <t>Intercurrent events were defined as any liver-related complication, treatment discontinuation due to adverse events, use of non-selective beta-blockers (NSBB) or GLP-1 agonists for more than 12 months or undergoing a TIPS procedure. The most common intercurrent event was prolonged use of NSBB or GLP-1 agonists.</t>
+  </si>
+  <si>
+    <t>Varices</t>
+  </si>
+  <si>
+    <t>2mg</t>
+  </si>
+  <si>
+    <t>4mg</t>
+  </si>
+  <si>
+    <t>PE ITT</t>
+  </si>
+  <si>
+    <t>2MG</t>
+  </si>
+  <si>
+    <t>4MG</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PE PP</t>
+  </si>
+  <si>
+    <t>Subgroup ITT</t>
+  </si>
+  <si>
+    <t>Subgroup PP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -474,12 +534,24 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -581,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,6 +691,19 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,7 +735,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381927</xdr:colOff>
+      <xdr:colOff>126484</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>147753</xdr:rowOff>
     </xdr:to>
@@ -706,14 +791,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>521512</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>48545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>502231</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>149637</xdr:rowOff>
+      <xdr:colOff>246788</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -767,13 +852,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>115065</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>51110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>294577</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>90370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -828,13 +913,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>433653</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>58426</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>81436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -872,13 +957,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>367394</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>341030</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>341029</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>3208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -916,13 +1001,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>35032</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>153990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>491501</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>53094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1278,15 +1363,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF9C6-3B14-4BDA-84B8-00B5084DDFA1}">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="6" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -1425,7 +1510,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="13">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -1460,7 +1545,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="13">
+    <row r="24" spans="2:2">
       <c r="B24" s="16" t="s">
         <v>110</v>
       </c>
@@ -1500,17 +1585,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5682B-1711-4774-8135-680A0385C4E6}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1558,7 +1646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13">
+    <row r="7" spans="1:8">
       <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
@@ -1572,181 +1660,328 @@
       <c r="C9" t="s">
         <v>102</v>
       </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>101</v>
       </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="18">
+        <f>+E13/E14</f>
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="F16" s="18">
+        <f>+F13/F14</f>
+        <v>9.4736842105263161E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="F17">
+        <f>+F16/E16-1</f>
+        <v>-0.46501547987616099</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="E19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="13">
-      <c r="C16" s="4" t="s">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="E21" s="1">
+        <f>355/3</f>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="F21" s="1">
+        <f>355/3</f>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="G21" s="1">
+        <f>355/3</f>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="M21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="23">
+        <f>+E20/E21</f>
+        <v>0.14366197183098592</v>
+      </c>
+      <c r="F22" s="23">
+        <f>+F20/F21</f>
+        <v>0.10140845070422536</v>
+      </c>
+      <c r="G22" s="23">
+        <f>+G20/G21</f>
+        <v>0.14366197183098592</v>
+      </c>
+      <c r="M22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="M23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
+    <row r="27" spans="3:15">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
+    <row r="28" spans="3:15">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
+    <row r="29" spans="3:15">
+      <c r="C29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
+    <row r="30" spans="3:15">
+      <c r="C30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
+    <row r="31" spans="3:15">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" t="s">
+    <row r="32" spans="3:15">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="13">
-      <c r="C24" s="4" t="s">
+    <row r="34" spans="3:6">
+      <c r="C34" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="D29" t="s">
+    <row r="39" spans="3:6">
+      <c r="D39" t="s">
         <v>41</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="D30" t="s">
+    <row r="40" spans="3:6">
+      <c r="D40" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F30">
+      <c r="F40">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="D31" t="s">
+    <row r="41" spans="3:6">
+      <c r="D41" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F31">
+      <c r="F41">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="D32" t="s">
+    <row r="42" spans="3:6">
+      <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F32">
+      <c r="F42">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
-      <c r="D34" t="s">
+    <row r="44" spans="3:6">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
-      <c r="D35" t="s">
+    <row r="45" spans="3:6">
+      <c r="D45" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E45" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F35">
+      <c r="F45">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
-      <c r="D36" t="s">
+    <row r="46" spans="3:6">
+      <c r="D46" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F36">
+      <c r="F46">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
-      <c r="D37" t="s">
+    <row r="47" spans="3:6">
+      <c r="D47" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F37">
+      <c r="F47">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="13">
-      <c r="C43" s="4" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
-      <c r="C44" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1765,12 +2000,12 @@
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="6" width="10.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.54296875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="20"/>
-    <col min="9" max="9" width="10.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="20"/>
+    <col min="9" max="9" width="10.140625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1837,7 +2072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2732,10 +2967,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2895,9 +3130,9 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="13">
+    <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -2917,12 +3152,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="13">
+    <row r="8" spans="2:2">
       <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="13">
+    <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
         <v>90</v>
       </c>
@@ -2932,7 +3167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="13">
+    <row r="14" spans="2:2">
       <c r="B14" s="4" t="s">
         <v>97</v>
       </c>
